--- a/data/SSC/rating_curves_SSC_Q.xlsx
+++ b/data/SSC/rating_curves_SSC_Q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - University of Idaho\Documents\GitHub\sediment_trap_paper\data\SSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\sediment_trap_paper\data\SSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F4822-6850-4E45-B4E4-3BCEF16C7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C247125C-9AF1-4F23-B0A6-EB5CD468F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summer" sheetId="2" r:id="rId1"/>
@@ -467,7 +467,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -550,7 +550,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -957,7 +957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -995,7 +995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -1079,7 +1079,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1117,7 +1117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -1159,7 +1159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1196,7 +1196,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1208,6 +1208,1740 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Upstream Total Concentration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>- By Storm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ST4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41400155391510579"/>
+                  <c:y val="-3.6859317454008236E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4241928267747199E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7932063047253601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7959829048480398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6965804744147998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5889859461511601E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3731294483052898E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0843840093555398E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6196175614707702E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6135680584454599E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45854671755473E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.999897899999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.5558544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.002523099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.888999870000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.112550349999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.262999909999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.999763479999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.4555238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.000000029999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.000042799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D03-468B-A741-10B4DEA0C8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ST5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25946998143831718"/>
+                  <c:y val="-0.33782338327296069"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$22:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.66432575393171E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6127023508176502E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12870059393076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0550025930821501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5114414032114996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2896966402582401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1677178006885801E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28897170412782E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5147430220548E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5147430220548E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.28897170412782E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1670477158377801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$22:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43.199858990000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.231349890000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.000381399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.751649539999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.22200007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.222000019999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.904999960000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.99999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.498955209999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5580333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.000547560000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.000629279999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D03-468B-A741-10B4DEA0C8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ST6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.68052650463671205"/>
+                  <c:y val="-1.6260705076747432E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$34:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3918048948303501E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29054690999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2070389853395799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1684788928497499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24889235123712E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.28897170412782E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3063574865192801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$34:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>77.894999929999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.00000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8362148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.545192100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.841154079999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.00051874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7D03-468B-A741-10B4DEA0C8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ST7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.43436980212615639"/>
+                  <c:y val="6.7461683592705837E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$46:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0528229072998699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8418244841577602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6135680584454599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4675642779279199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42155690608048E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$46:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.768358689999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.19991885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.179685660000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.417527799999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.999431789999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D03-468B-A741-10B4DEA0C8A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1074564687"/>
+        <c:axId val="1074566127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1074564687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074566127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1074566127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>SSC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (mg.L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074564687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36566700600612295"/>
+          <c:y val="0.87067984835949985"/>
+          <c:w val="0.32451514325502567"/>
+          <c:h val="8.7729948589433074E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Concentration - Spring</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Conc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6846680481365595E-2"/>
+                  <c:y val="-0.25941856226305043"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>spring!$H$2:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.171886328011326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17858253626276399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17366943358482301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16965170896000101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.184383366461084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18482722940617299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17679177852632699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17366943358482301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.176808528840387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18666898145639299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.186683051720204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18257120581726999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.198135555256964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.202196770380911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19323818890813499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.228024805885122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.277136428383431</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26457163552462398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24797493203292101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.184383366461084</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18482722940617299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17679177852632699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17278170769464399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19405093533895701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19159893063024599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.181738892085264</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16521002777305599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16105877013360401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15938753872582101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16105877013360401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17433150869914599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18995671353775601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18995671353775601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15354232467829301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.169350687476575</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18666898145639299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.198135555256964</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21435307565376299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.277136428383431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.25114191513496997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24797493203292101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.216775431899037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>spring!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E2E9-4D18-913E-1EB532DE0499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1215070799"/>
+        <c:axId val="1215072239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1215070799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215072239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1215072239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215070799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1277,7 +3011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1365,7 +3099,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1587,7 +3321,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1822,7 +3556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -1884,7 +3618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -1934,7 +3668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1971,7 +3705,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1982,7 +3716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2054,7 +3788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2134,7 +3868,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2483,7 +4217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -2545,7 +4279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -2587,7 +4321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2624,7 +4358,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2635,7 +4369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2705,7 +4439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2793,7 +4527,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3015,7 +4749,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3250,7 +4984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -3312,7 +5046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -3362,7 +5096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3399,7 +5133,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3410,7 +5144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3482,7 +5216,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3562,7 +5296,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3911,7 +5645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -3973,7 +5707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -4015,7 +5749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4052,7 +5786,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4063,7 +5797,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4135,7 +5869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4215,7 +5949,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4564,7 +6298,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -4626,7 +6360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -4668,7 +6402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4705,7 +6439,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4716,7 +6450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4786,7 +6520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4874,7 +6608,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5096,7 +6830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5331,7 +7065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -5393,7 +7127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -5443,7 +7177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5480,7 +7214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5491,7 +7225,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5561,7 +7295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5649,7 +7383,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5871,7 +7605,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6106,7 +7840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215072239"/>
@@ -6168,7 +7902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215070799"/>
@@ -6218,7 +7952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6255,7 +7989,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6339,7 +8073,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6427,7 +8161,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6625,7 +8359,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6835,7 +8569,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6985,7 +8719,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7158,7 +8892,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7196,7 +8930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -7280,7 +9014,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7318,7 +9052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -7376,7 +9110,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7413,7 +9147,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7489,7 +9223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7569,7 +9303,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7976,7 +9710,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8014,7 +9748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -8098,7 +9832,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8136,7 +9870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -8178,7 +9912,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8215,7 +9949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8291,7 +10025,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8371,7 +10105,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8778,7 +10512,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8816,7 +10550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -8900,7 +10634,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8938,7 +10672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -8980,7 +10714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9017,7 +10751,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9093,7 +10827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9173,7 +10907,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9580,7 +11314,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9618,7 +11352,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -9702,7 +11436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9740,7 +11474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -9782,7 +11516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9819,7 +11553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9903,7 +11637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9991,7 +11725,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10189,7 +11923,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10399,7 +12133,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10549,7 +12283,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10722,7 +12456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10760,7 +12494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -10844,7 +12578,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10882,7 +12616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -10940,7 +12674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10977,7 +12711,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11061,7 +12795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11149,7 +12883,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11347,7 +13081,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11557,7 +13291,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11707,7 +13441,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11880,7 +13614,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11918,7 +13652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -12002,7 +13736,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12040,7 +13774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -12098,7 +13832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12135,7 +13869,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12219,7 +13953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12307,7 +14041,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12505,7 +14239,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12715,7 +14449,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12865,7 +14599,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13038,7 +14772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13076,7 +14810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074566127"/>
@@ -13160,7 +14894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13198,7 +14932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1074564687"/>
@@ -13256,7 +14990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13293,7 +15027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13338,15 +15072,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Total Concentration - Spring</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Downstream Total Concentration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>- By Storm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13376,7 +15111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13390,7 +15125,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Total Conc</c:v>
+            <c:v>ST4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -13424,19 +15159,24 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6846680481365595E-2"/>
-                  <c:y val="-0.25941856226305043"/>
+                  <c:x val="-0.20110776716492082"/>
+                  <c:y val="0.18910849359881818"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -13459,277 +15199,55 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>spring!$H$2:$H$43</c:f>
+              <c:f>summer!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.171886328011326</c:v>
+                  <c:v>4.5677437518626803E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17858253626276399</c:v>
+                  <c:v>4.5472364768501097E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17366943358482301</c:v>
+                  <c:v>5.2846760713736798E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16965170896000101</c:v>
+                  <c:v>4.93206577250766E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.184383366461084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18482722940617299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17679177852632699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17366943358482301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.176808528840387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18666898145639299</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.186683051720204</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.18257120581726999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.198135555256964</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.202196770380911</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19323818890813499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.228024805885122</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.277136428383431</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.26457163552462398</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24797493203292101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.184383366461084</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.18482722940617299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.17679177852632699</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.17278170769464399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.19405093533895701</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19159893063024599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.181738892085264</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16521002777305599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16105877013360401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15938753872582101</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.16105877013360401</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.17433150869914599</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.18995671353775601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.18995671353775601</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.15354232467829301</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.169350687476575</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.18666898145639299</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.198135555256964</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.21435307565376299</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.277136428383431</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.25114191513496997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.24797493203292101</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.216775431899037</c:v>
+                  <c:v>3.1950057445806097E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>spring!$C$2:$C$43</c:f>
+              <c:f>summer!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.16</c:v>
+                  <c:v>110.0000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>53.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9499999999999993</c:v>
+                  <c:v>80.000000240000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>43.334300550000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.67</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.67</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.67</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.67</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.67</c:v>
+                  <c:v>92.221999819999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13737,7 +15255,283 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E2E9-4D18-913E-1EB532DE0499}"/>
+              <c16:uniqueId val="{00000001-7BD8-4A68-B3A0-DCBDF4690389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ST5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.45866085153806074"/>
+                  <c:y val="0.15550560412519809"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$17:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.66432575393171E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6195854712328501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54816878323273E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2900345128930501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.48464017966453E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.154000150000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.19999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.600000080000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.60000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.833370989999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7BD8-4A68-B3A0-DCBDF4690389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ST7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.54820242803871067"/>
+                  <c:y val="0.10226802749271934"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summer!$G$41:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4210236431668801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.26863815215868E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52396285400846E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44609417106578E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42155690608048E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.600000569999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.538697079999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.077132219999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.59980959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.175216679999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7BD8-4A68-B3A0-DCBDF4690389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13749,14 +15543,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1215070799"/>
-        <c:axId val="1215072239"/>
+        <c:axId val="1074564687"/>
+        <c:axId val="1074566127"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1215070799"/>
+        <c:axId val="1074564687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13774,6 +15567,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13808,15 +15656,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215072239"/>
+        <c:crossAx val="1074566127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1215072239"/>
+        <c:axId val="1074566127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13836,6 +15684,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>SSC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (mg.L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13870,10 +15778,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215070799"/>
+        <c:crossAx val="1074564687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13887,6 +15795,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13912,7 +15832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13949,7 +15869,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14241,6 +16161,86 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18728,6 +20728,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -23155,6 +26187,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD27F9-1B13-4010-B741-B396AAA7DFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777624FF-79C7-48B9-A566-97C5527FE90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23735,8 +26843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0752EAC-B958-4930-AC83-02E0D5D84BD4}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X55" sqref="X55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24905,7 +28013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>

--- a/data/SSC/rating_curves_SSC_Q.xlsx
+++ b/data/SSC/rating_curves_SSC_Q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\sediment_trap_paper\data\SSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - University of Idaho\Documents\GitHub\sediment_trap_paper\data\SSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C247125C-9AF1-4F23-B0A6-EB5CD468F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D260C226-1D0D-47F7-96C0-3622890D9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summer" sheetId="2" r:id="rId1"/>
@@ -376,11 +376,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1079,7 +1077,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2131,7 +2129,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3011,7 +3009,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4439,7 +4437,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6520,7 +6518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7295,7 +7293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9014,7 +9012,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9832,7 +9830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10634,7 +10632,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11436,7 +11434,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12578,7 +12576,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13736,7 +13734,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14894,7 +14892,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15740,7 +15738,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26843,17 +26841,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0752EAC-B958-4930-AC83-02E0D5D84BD4}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26876,904 +26874,904 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45136.629861111112</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>110.0000003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>2.2384712900000001</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>66.982882119999999</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>40.77864692</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>4.5677437518626803E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>45136.640277777777</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>53.332999999999998</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1.261990779</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>34.389887139999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>17.681122080000002</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>4.5472364768501097E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>45136.650694444441</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>80.000000240000006</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1.73032312</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>49.409612320000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>28.8600648</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>5.2846760713736798E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>45136.661111111112</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>43.334300550000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.6478121</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>25.369451179999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>17.31703727</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>4.93206577250766E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>45136.671527777777</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>92.221999819999994</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1.9795797209999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>54.788411910000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>35.454008190000003</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>3.1950057445806097E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45136.636111111111</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>99.999897899999993</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1.7025325</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>50.927867399999997</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>47.369498</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>4.4241928267747199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>45136.646527777775</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>105.5558544</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>2.6126065280000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>63.645890489999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>39.297357429999998</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>4.7932063047253601E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45136.656944444447</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>50.002523099999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>1.7129574000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>34.066121099999997</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>14.223444600000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>5.7959829048480398E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45136.667361111111</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>68.888999870000006</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.6975885020000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>38.772768460000002</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>28.418642909999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>3.6965804744147998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>45136.677777777775</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>51.112550349999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>1.5941184079999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>31.586279730000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>17.932152210000002</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>2.5889859461511601E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45136.688194444447</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>45.262999909999998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>1.0785253619999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>27.828759980000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>16.355714580000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>3.3731294483052898E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>45136.698611111111</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>19.999763479999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.34223409999999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>9.6059695600000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>10.05155982</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>2.0843840093555398E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>45136.719444444447</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>15.4555238</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.36588095999999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>8.3332856950000007</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>6.756357145</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>1.6196175614707702E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>45136.740277777775</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>26.000000029999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.78720007599999997</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>16.636494320000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>8.5763056340000006</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>1.6135680584454599E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45136.771527777775</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>21.000042799999999</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>0.24858424500000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>8.7181228260000001</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>12.033335729999999</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>1.45854671755473E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>45151.78125</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>76.154000150000002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>1.535948426</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>41.556805400000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>33.061246330000003</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>1.66432575393171E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>45151.790277777778</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>41.19999988</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0.91580950299999997</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>23.98199936</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>16.302191019999999</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>1.6195854712328501E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>45151.793055555558</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>39.600000080000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.72662721200000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>21.643585559999998</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>17.229787300000002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>1.54816878323273E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>45151.798611111109</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>27.60000003</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>0.53448092800000002</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>15.561848729999999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>11.50367037</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>1.2900345128930501E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>45151.876388888886</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>20.833370989999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0.47843855400000002</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>12.20871524</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>8.1462171990000005</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>1.48464017966453E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>45151.78125</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>43.199858990000003</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>0.55608318700000003</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>16.282472340000002</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>26.361303469999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>1.66432575393171E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>45151.791666666664</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>29.231349890000001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>0.613805516</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>16.922344840000001</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>11.695199540000001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>1.6127023508176502E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>45151.802083333336</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>25.000381399999998</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>0.53111522499999997</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>13.69915258</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>10.7701136</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>1.12870059393076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>45151.8125</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>23.751649539999999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0.45043115</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>12.849270130000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>10.45194826</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>1.0550025930821501E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>45151.822916666664</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>22.22200007</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>0.40174336100000002</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>11.227002969999999</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>10.593253730000001</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>9.5114414032114996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45151.833333333336</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>22.222000019999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>0.32571578800000001</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>11.749664839999999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>10.146619400000001</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>1.2896966402582401E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>45151.84375</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>21.904999960000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>0.26598555800000001</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>8.6595386179999991</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>12.97947578</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>1.1677178006885801E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>45151.854166666664</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>17.99999996</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>0.18115083000000001</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>6.5781730979999997</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>11.24067604</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>1.28897170412782E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>45151.864583333336</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>20.498955209999998</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>0.41792718899999998</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>11.0970862</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>8.9839418159999997</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>1.5147430220548E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>45151.875</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>12.5580333</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>0.22869155199999999</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>7.1097737370000003</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>5.2195680150000001</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>1.5147430220548E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>45151.885416666664</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>18.000547560000001</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>0.38789038799999997</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>10.00057462</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>7.6120825500000002</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>1.28897170412782E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>45151.895833333336</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>20.000629279999998</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>0.40784703999999999</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>10.445131399999999</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>9.1476508400000007</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>1.1670477158377801E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>45166.513888888891</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>77.894999929999997</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>1.1431815679999999</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>37.685186520000002</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>39.066631839999999</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <v>1.3918048948303501E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>45166.524305555555</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>43.00000009</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>0.58630581699999995</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>20.068511470000001</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>22.3451828</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>1.29054690999993E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>45166.534722222219</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>36</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>0.63156193199999999</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>19.97190904</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>15.39652903</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>1.2070389853395799E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>45166.545138888891</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>28.8362148</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>0.50938818900000005</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>14.830492660000001</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>13.49633395</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>1.1684788928497499E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>45166.555555555555</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>29.545192100000001</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>0.48133913299999997</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>15.63631633</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>13.42753665</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>1.24889235123712E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>45166.586805555555</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>26.841154079999999</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>0.50269211800000002</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>14.121905659999999</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>12.216556300000001</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>1.28897170412782E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>45166.607638888891</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>24.00051874</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>0.435763128</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>13.756626860000001</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>9.8081287439999993</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>1.3063574865192801E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45183.744444444441</v>
       </c>
@@ -27796,7 +27794,7 @@
         <v>2.4210236431668801E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45183.754861111112</v>
       </c>
@@ -27819,7 +27817,7 @@
         <v>2.26863815215868E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45183.765277777777</v>
       </c>
@@ -27842,7 +27840,7 @@
         <v>1.52396285400846E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45183.786111111112</v>
       </c>
@@ -27865,7 +27863,7 @@
         <v>1.44609417106578E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45183.79791666667</v>
       </c>
@@ -27888,7 +27886,7 @@
         <v>1.42155690608048E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45183.739583333336</v>
       </c>
@@ -27911,7 +27909,7 @@
         <v>2.0528229072998699E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45183.75</v>
       </c>
@@ -27934,7 +27932,7 @@
         <v>2.8418244841577602E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45183.760416666664</v>
       </c>
@@ -27957,7 +27955,7 @@
         <v>1.6135680584454599E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45183.78125</v>
       </c>
@@ -27980,7 +27978,7 @@
         <v>1.4675642779279199E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45183.802083333336</v>
       </c>
@@ -28013,16 +28011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28048,501 +28046,501 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45033.6875</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>23.16</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>205</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>0.16876276700000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>9.6563256909999993</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>13.333347699999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>0.171886328011326</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>45033.854166666664</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>206</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>0.18973258500000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>9.3864923250000007</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>5.4255319049999997</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>0.17858253626276399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>45034.020833333336</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>222</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>5.6863955000000001E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>4.070310299</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>4.821338066</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>0.17366943358482301</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>45034.1875</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>9.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>207</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>7.6635030000000007E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>4.4512997969999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>4.9726531850000004</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>0.16965170896000101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>45034.6875</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>225</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>0.31997206700000003</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>14.03493842</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>8.647427231</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>0.184383366461084</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45034.895833333336</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>226</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0.12516511499999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>5.7027741150000004</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>9.1720607699999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>0.18482722940617299</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>45035.104166666664</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>227</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>6.8218310000000004E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>4.4745853200000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>5.4571963700000001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>0.17679177852632699</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>45035.520833333336</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>229</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>2.8156476999999999E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>1.8744080279999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>1.597280875</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>0.17366943358482301</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45037.395833333336</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>6.25</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>234</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>5.7663182E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>2.9218879169999998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>3.269588277</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>0.176808528840387</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>45046.75</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>42</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>323</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>0.53259914399999997</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>17.814978010000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>23.653744549999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>0.18666898145639299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>45046.958333333336</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>17.420000000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>324</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>0.152104448</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>6.5842968209999997</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>10.682395939999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>0.186683051720204</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>45047.583333333336</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>327</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>7.5044879999999994E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>3.1020945539999998</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>2.8228605720000002</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>0.18257120581726999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>45047.833333333336</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>22.14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>343</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>0.20720609000000001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>7.1975824179999996</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>14.736734999999999</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>0.198135555256964</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>45048.125</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>344</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>0.15141339000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>4.4648754400000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>5.3823117800000002</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>0.202196770380911</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>45048.416666666664</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>6.43</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>345</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>0.109183207</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>2.6773267500000002</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>3.6426933610000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>0.19323818890813499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>45048.708333333336</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>346</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0.21313927799999999</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>7.1794649880000003</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>10.603855210000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>0.228024805885122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>45049.833333333336</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>20.67</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>350</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0.25397928400000003</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>7.6876070329999999</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>12.72601482</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>0.277136428383431</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>45050.083333333336</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>11.88</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>351</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>0.117770526</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>5.1492537199999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>6.60844217</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>0.26457163552462398</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45050.958333333336</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>7.14</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>356</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>4.2890389799999999</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>2.8530971690000002</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.24797493203292101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45034.6875</v>
       </c>
@@ -28568,7 +28566,7 @@
         <v>0.184383366461084</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45034.895833333336</v>
       </c>
@@ -28594,7 +28592,7 @@
         <v>0.18482722940617299</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45035.104166666664</v>
       </c>
@@ -28620,7 +28618,7 @@
         <v>0.17679177852632699</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45035.3125</v>
       </c>
@@ -28646,7 +28644,7 @@
         <v>0.17278170769464399</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45035.9375</v>
       </c>
@@ -28672,7 +28670,7 @@
         <v>0.19405093533895701</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45036.145833333336</v>
       </c>
@@ -28698,7 +28696,7 @@
         <v>0.19159893063024599</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45036.979166666664</v>
       </c>
@@ -28724,7 +28722,7 @@
         <v>0.181738892085264</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45037.8125</v>
       </c>
@@ -28750,7 +28748,7 @@
         <v>0.16521002777305599</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45038.229166666664</v>
       </c>
@@ -28776,7 +28774,7 @@
         <v>0.16105877013360401</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45038.645833333336</v>
       </c>
@@ -28802,7 +28800,7 @@
         <v>0.15938753872582101</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45038.854166666664</v>
       </c>
@@ -28828,7 +28826,7 @@
         <v>0.16105877013360401</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45040.083333333336</v>
       </c>
@@ -28854,7 +28852,7 @@
         <v>0.17433150869914599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45040.708333333336</v>
       </c>
@@ -28880,7 +28878,7 @@
         <v>0.18995671353775601</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45040.916666666664</v>
       </c>
@@ -28906,7 +28904,7 @@
         <v>0.18995671353775601</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45044.666666666664</v>
       </c>
@@ -28932,7 +28930,7 @@
         <v>0.15354232467829301</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45046.541666666664</v>
       </c>
@@ -28958,7 +28956,7 @@
         <v>0.169350687476575</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45046.75</v>
       </c>
@@ -28984,7 +28982,7 @@
         <v>0.18666898145639299</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45047.833333333336</v>
       </c>
@@ -29010,7 +29008,7 @@
         <v>0.198135555256964</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45049.583333333336</v>
       </c>
@@ -29036,7 +29034,7 @@
         <v>0.21435307565376299</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45049.833333333336</v>
       </c>
@@ -29062,7 +29060,7 @@
         <v>0.277136428383431</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45050.833333333336</v>
       </c>
@@ -29088,7 +29086,7 @@
         <v>0.25114191513496997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45050.958333333336</v>
       </c>
@@ -29114,7 +29112,7 @@
         <v>0.24797493203292101</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45051.458333333336</v>
       </c>
